--- a/docs/Network/Network Protocol.xlsx
+++ b/docs/Network/Network Protocol.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lars\Documents\GitHub\Trainees-best-friend\docs\Network\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Eigene Daten\WhiteCode\Trainees-best-friend\docs\Network\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Network protocol</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Portrange Descriptions</t>
   </si>
   <si>
-    <t>Portrange</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -96,6 +93,39 @@
   </si>
   <si>
     <t>Data</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>End key</t>
+  </si>
+  <si>
+    <t>ProtocolNumberRange</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Request greeting string</t>
+  </si>
+  <si>
+    <t>"Greetings from Server"</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Send string to client</t>
+  </si>
+  <si>
+    <t>Sends login details to server</t>
+  </si>
+  <si>
+    <t>Sends answer of login to client</t>
+  </si>
+  <si>
+    <t>Sign Up (Client -&gt; Server)</t>
   </si>
 </sst>
 </file>
@@ -135,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -304,56 +334,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -634,18 +716,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="1.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -661,162 +745,223 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="6"/>
-      <c r="F4" s="5" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="F4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="14"/>
-      <c r="F5" s="7" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="F5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="8" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="9">
+        <v>900</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="23"/>
+      <c r="F8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="18" t="str">
+        <f>B5&amp;B6&amp;"{Data1}"&amp;B7&amp;"{Data2}"&amp;B8</f>
+        <v>#100{Data1};{Data2}~</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>100</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="15">
-        <v>900</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="14"/>
-      <c r="F7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="17" t="str">
-        <f>B5&amp;B6&amp;"{Data1}"&amp;B7&amp;"{Data2}"</f>
-        <v>#100{Data1}~{Data2}</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="F8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="3"/>
+      <c r="C16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="3"/>
+      <c r="A17" s="2">
+        <v>101</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="3"/>
+      <c r="A18" s="2">
+        <v>102</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>"{UserName}"&amp;B7&amp;"{Password}"</f>
+        <v>{UserName};{Password}</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="3"/>
+      <c r="A19" s="2">
+        <v>103</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>"{Boolean}"</f>
+        <v>{Boolean}</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>104</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>"{UserName}"&amp;B7&amp;"{Password}"&amp;B7&amp;"{Email}"</f>
+        <v>{UserName};{Password};{Email}</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="24">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="C20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
